--- a/source/Cosmos.Core.Memory.Test/Heap.xlsx
+++ b/source/Cosmos.Core.Memory.Test/Heap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atmoic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Cosmos\source\Cosmos.Core.Memory.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="8610" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instances" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,15 +76,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -24059,24 +24072,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.90625" customWidth="1"/>
     <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <f>SUM(B2:B9999)</f>
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -24084,8 +24102,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A2)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="2">
+        <f>B2/B$1</f>
+        <v>2.9560810810810812E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -24093,8 +24115,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A3)</f>
         <v>1161</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">B3/B$1</f>
+        <v>0.24514358108108109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>16</v>
       </c>
@@ -24102,8 +24128,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A4)</f>
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8217905405405407E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>18</v>
       </c>
@@ -24111,8 +24141,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A5)</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4493243243243243E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -24120,8 +24154,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A6)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6891891891891893E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -24129,8 +24167,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A7)</f>
         <v>750</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15836148648648649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -24138,8 +24180,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A8)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9003378378378379E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -24147,8 +24193,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A9)</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2035472972972973E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -24156,8 +24206,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A10)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1114864864864866E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -24165,8 +24219,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A11)</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8581081081081082E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -24174,8 +24232,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A12)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459464E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>28</v>
       </c>
@@ -24183,8 +24245,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A13)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9003378378378379E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>30</v>
       </c>
@@ -24192,8 +24258,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A14)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9121621621621625E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>32</v>
       </c>
@@ -24201,8 +24271,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A15)</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1326013513513514E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>34</v>
       </c>
@@ -24210,8 +24284,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A16)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9679054054054054E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>36</v>
       </c>
@@ -24219,8 +24297,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A17)</f>
         <v>833</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17588682432432431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -24228,8 +24310,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A18)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1672297297297299E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>40</v>
       </c>
@@ -24237,8 +24323,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A19)</f>
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8158783783783782E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42</v>
       </c>
@@ -24246,8 +24336,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A20)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6452702702702705E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44</v>
       </c>
@@ -24255,8 +24349,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A21)</f>
         <v>332</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0101351351351357E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>46</v>
       </c>
@@ -24264,8 +24362,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A22)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>48</v>
       </c>
@@ -24273,8 +24375,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A23)</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.245777027027027E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>50</v>
       </c>
@@ -24282,8 +24388,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A24)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52</v>
       </c>
@@ -24291,8 +24401,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A25)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>54</v>
       </c>
@@ -24300,8 +24414,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A26)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>56</v>
       </c>
@@ -24309,8 +24427,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A27)</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0194256756756757E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>57</v>
       </c>
@@ -24318,8 +24440,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A28)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8006756756756759E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>58</v>
       </c>
@@ -24327,8 +24453,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A29)</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1824324324324325E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>60</v>
       </c>
@@ -24336,8 +24466,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A30)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4341216216216214E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>62</v>
       </c>
@@ -24345,8 +24479,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A31)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>63</v>
       </c>
@@ -24354,8 +24492,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A32)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8006756756756759E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>64</v>
       </c>
@@ -24363,8 +24505,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A33)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7449324324324326E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>66</v>
       </c>
@@ -24372,8 +24518,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A34)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4341216216216214E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>68</v>
       </c>
@@ -24381,8 +24531,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A35)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6891891891891893E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>70</v>
       </c>
@@ -24390,8 +24544,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A36)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9003378378378379E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>72</v>
       </c>
@@ -24399,8 +24557,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A37)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9560810810810812E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>74</v>
       </c>
@@ -24408,8 +24570,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A38)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.266891891891892E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>76</v>
       </c>
@@ -24417,8 +24583,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A39)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>78</v>
       </c>
@@ -24426,8 +24596,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A40)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3226351351351353E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>80</v>
       </c>
@@ -24435,8 +24609,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A41)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0118243243243241E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>82</v>
       </c>
@@ -24444,8 +24622,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A42)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7449324324324326E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>84</v>
       </c>
@@ -24453,8 +24635,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A43)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4341216216216214E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>86</v>
       </c>
@@ -24462,8 +24648,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A44)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6452702702702705E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>88</v>
       </c>
@@ -24471,8 +24661,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A45)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5337837837837839E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>90</v>
       </c>
@@ -24480,8 +24674,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A46)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>1.266891891891892E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>92</v>
       </c>
@@ -24489,8 +24687,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A47)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9003378378378379E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>94</v>
       </c>
@@ -24498,8 +24700,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A48)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1114864864864866E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>96</v>
       </c>
@@ -24507,8 +24713,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A49)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2787162162162161E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>98</v>
       </c>
@@ -24516,8 +24726,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A50)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2229729729729732E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>100</v>
       </c>
@@ -24525,8 +24739,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A51)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0557432432432433E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>102</v>
       </c>
@@ -24534,8 +24752,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A52)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6891891891891893E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>104</v>
       </c>
@@ -24543,8 +24765,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A53)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>1.266891891891892E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -24552,8 +24778,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A54)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9003378378378379E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>108</v>
       </c>
@@ -24561,8 +24791,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A55)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0557432432432433E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>110</v>
       </c>
@@ -24570,8 +24804,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A56)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>1.266891891891892E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>112</v>
       </c>
@@ -24579,8 +24817,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A57)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>114</v>
       </c>
@@ -24588,8 +24830,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A58)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>116</v>
       </c>
@@ -24597,8 +24843,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A59)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459464E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>118</v>
       </c>
@@ -24606,8 +24856,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A60)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459464E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>120</v>
       </c>
@@ -24615,8 +24869,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A61)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4459459459459464E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>122</v>
       </c>
@@ -24624,8 +24882,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A62)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0557432432432433E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>124</v>
       </c>
@@ -24633,8 +24895,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A63)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3226351351351353E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>126</v>
       </c>
@@ -24642,8 +24908,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A64)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1114864864864866E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>128</v>
       </c>
@@ -24651,8 +24921,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A65)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0557432432432433E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>132</v>
       </c>
@@ -24660,8 +24934,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A66)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>134</v>
       </c>
@@ -24669,8 +24947,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A67)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C95" si="1">B67/B$1</f>
+        <v>1.266891891891892E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>136</v>
       </c>
@@ -24678,8 +24960,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A68)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>138</v>
       </c>
@@ -24687,8 +24973,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A69)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>140</v>
       </c>
@@ -24696,8 +24986,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A70)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4459459459459464E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>142</v>
       </c>
@@ -24705,8 +24999,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A71)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>144</v>
       </c>
@@ -24714,8 +25012,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A72)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0557432432432433E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>146</v>
       </c>
@@ -24723,8 +25025,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A73)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>148</v>
       </c>
@@ -24732,8 +25038,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A74)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>150</v>
       </c>
@@ -24741,8 +25051,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A75)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0557432432432433E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>152</v>
       </c>
@@ -24750,8 +25064,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A76)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>154</v>
       </c>
@@ -24759,8 +25077,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A77)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>156</v>
       </c>
@@ -24768,8 +25090,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A78)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>158</v>
       </c>
@@ -24777,8 +25103,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A79)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>160</v>
       </c>
@@ -24786,8 +25116,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A80)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>162</v>
       </c>
@@ -24795,8 +25129,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A81)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>164</v>
       </c>
@@ -24804,8 +25142,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A82)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>166</v>
       </c>
@@ -24813,8 +25155,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A83)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>170</v>
       </c>
@@ -24822,8 +25168,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A84)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>172</v>
       </c>
@@ -24831,8 +25181,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A85)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>176</v>
       </c>
@@ -24840,8 +25194,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A86)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>178</v>
       </c>
@@ -24849,8 +25207,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A87)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>186</v>
       </c>
@@ -24858,8 +25220,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A88)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>188</v>
       </c>
@@ -24867,8 +25233,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A89)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2229729729729732E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>190</v>
       </c>
@@ -24876,8 +25246,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A90)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>192</v>
       </c>
@@ -24885,8 +25259,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A91)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>194</v>
       </c>
@@ -24894,8 +25272,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A92)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>416</v>
       </c>
@@ -24903,8 +25285,12 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A93)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9003378378378379E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>528</v>
       </c>
@@ -24912,14 +25298,22 @@
         <f>COUNTIF(Instances!$A$2:$A$5000, A94)</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1233108108108107E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>1040</v>
       </c>
       <c r="B95">
         <f>COUNTIF(Instances!$A$2:$A$5000, A95)</f>
         <v>9</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9003378378378379E-3</v>
       </c>
     </row>
   </sheetData>

--- a/source/Cosmos.Core.Memory.Test/Heap.xlsx
+++ b/source/Cosmos.Core.Memory.Test/Heap.xlsx
@@ -24072,10 +24072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24090,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>SUM(B2:B9999)</f>
+        <f>SUM(B2:B10002)</f>
         <v>4736</v>
       </c>
     </row>
@@ -24116,7 +24116,7 @@
         <v>1161</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C66" si="0">B3/B$1</f>
+        <f t="shared" ref="C3:C69" si="0">B3/B$1</f>
         <v>0.24514358108108109</v>
       </c>
     </row>
@@ -24134,255 +24134,235 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B5">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A5)</f>
+      <c r="B6">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A6)</f>
         <v>116</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>2.4493243243243243E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>19</v>
       </c>
-      <c r="B6">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A6)</f>
+      <c r="B7">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A7)</f>
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>1.6891891891891893E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A7)</f>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A8)</f>
         <v>750</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0.15836148648648649</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>21</v>
       </c>
-      <c r="B8">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A8)</f>
+      <c r="B9">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A9)</f>
         <v>9</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>1.9003378378378379E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B9">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A9)</f>
+      <c r="B10">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A10)</f>
         <v>57</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>1.2035472972972973E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>23</v>
       </c>
-      <c r="B10">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A10)</f>
+      <c r="B11">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A11)</f>
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>2.1114864864864866E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>24</v>
       </c>
-      <c r="B11">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A11)</f>
+      <c r="B12">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A12)</f>
         <v>88</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>1.8581081081081082E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>26</v>
       </c>
-      <c r="B12">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A12)</f>
+      <c r="B14">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A14)</f>
         <v>40</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>8.4459459459459464E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>28</v>
       </c>
-      <c r="B13">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A13)</f>
+      <c r="B15">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A15)</f>
         <v>90</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>1.9003378378378379E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>30</v>
       </c>
-      <c r="B14">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A14)</f>
+      <c r="B16">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A16)</f>
         <v>28</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>5.9121621621621625E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>32</v>
       </c>
-      <c r="B15">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A15)</f>
+      <c r="B17">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A17)</f>
         <v>101</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>2.1326013513513514E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>34</v>
       </c>
-      <c r="B16">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A16)</f>
+      <c r="B18">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A18)</f>
         <v>33</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>6.9679054054054054E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A17)</f>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A19)</f>
         <v>833</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>0.17588682432432431</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>38</v>
       </c>
-      <c r="B18">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A18)</f>
+      <c r="B20">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A20)</f>
         <v>15</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>3.1672297297297299E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>40</v>
       </c>
-      <c r="B19">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A19)</f>
+      <c r="B21">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A21)</f>
         <v>86</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>1.8158783783783782E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>42</v>
       </c>
-      <c r="B20">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A20)</f>
+      <c r="B22">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A22)</f>
         <v>22</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>4.6452702702702705E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A21)</f>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A23)</f>
         <v>332</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>7.0101351351351357E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A22)</f>
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3344594594594598E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>48</v>
-      </c>
-      <c r="B23">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A23)</f>
-        <v>59</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.245777027027027E-2</v>
-      </c>
-    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <f>COUNTIF(Instances!$A$2:$A$5000, A24)</f>
@@ -24395,410 +24375,400 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <f>COUNTIF(Instances!$A$2:$A$5000, A25)</f>
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
+        <v>1.245777027027027E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A27)</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3344594594594598E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A28)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
         <v>2.1114864864864866E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>54</v>
       </c>
-      <c r="B26">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A26)</f>
+      <c r="B29">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A29)</f>
         <v>2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>4.2229729729729732E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>56</v>
       </c>
-      <c r="B27">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A27)</f>
+      <c r="B30">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A30)</f>
         <v>143</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>3.0194256756756757E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>57</v>
       </c>
-      <c r="B28">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A28)</f>
+      <c r="B31">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A31)</f>
         <v>18</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>3.8006756756756759E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>58</v>
       </c>
-      <c r="B29">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A29)</f>
+      <c r="B32">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A32)</f>
         <v>56</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>1.1824324324324325E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>60</v>
       </c>
-      <c r="B30">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A30)</f>
+      <c r="B33">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A33)</f>
         <v>21</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>4.4341216216216214E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>62</v>
       </c>
-      <c r="B31">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A31)</f>
+      <c r="B34">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A34)</f>
         <v>2</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>4.2229729729729732E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>63</v>
       </c>
-      <c r="B32">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A32)</f>
+      <c r="B35">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A35)</f>
         <v>18</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>3.8006756756756759E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>64</v>
       </c>
-      <c r="B33">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A33)</f>
+      <c r="B36">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A36)</f>
         <v>13</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>2.7449324324324326E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>66</v>
       </c>
-      <c r="B34">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A34)</f>
+      <c r="B37">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A37)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>4.4341216216216214E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>68</v>
       </c>
-      <c r="B35">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A35)</f>
+      <c r="B38">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A38)</f>
         <v>8</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>1.6891891891891893E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>70</v>
       </c>
-      <c r="B36">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A36)</f>
+      <c r="B39">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A39)</f>
         <v>9</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>1.9003378378378379E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>72</v>
       </c>
-      <c r="B37">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A37)</f>
-        <v>14</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B40">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A40)</f>
+        <v>14</v>
+      </c>
+      <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>2.9560810810810812E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>74</v>
       </c>
-      <c r="B38">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A38)</f>
+      <c r="B41">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A41)</f>
         <v>6</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>1.266891891891892E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>76</v>
       </c>
-      <c r="B39">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A39)</f>
+      <c r="B42">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A42)</f>
         <v>3</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>6.3344594594594598E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>78</v>
       </c>
-      <c r="B40">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A40)</f>
+      <c r="B43">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A43)</f>
         <v>11</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>2.3226351351351353E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>80</v>
       </c>
-      <c r="B41">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A41)</f>
+      <c r="B44">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A44)</f>
         <v>19</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>4.0118243243243241E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>82</v>
       </c>
-      <c r="B42">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A42)</f>
+      <c r="B45">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A45)</f>
         <v>13</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>2.7449324324324326E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>84</v>
       </c>
-      <c r="B43">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A43)</f>
+      <c r="B46">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A46)</f>
         <v>21</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>4.4341216216216214E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>86</v>
       </c>
-      <c r="B44">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A44)</f>
+      <c r="B47">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A47)</f>
         <v>22</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>4.6452702702702705E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>88</v>
       </c>
-      <c r="B45">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A45)</f>
+      <c r="B48">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A48)</f>
         <v>12</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>2.5337837837837839E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>90</v>
       </c>
-      <c r="B46">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A46)</f>
+      <c r="B49">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A49)</f>
         <v>6</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>1.266891891891892E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>92</v>
       </c>
-      <c r="B47">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A47)</f>
+      <c r="B50">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A50)</f>
         <v>9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>1.9003378378378379E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>94</v>
       </c>
-      <c r="B48">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A48)</f>
+      <c r="B51">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A51)</f>
         <v>10</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>2.1114864864864866E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>96</v>
       </c>
-      <c r="B49">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A49)</f>
+      <c r="B52">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A52)</f>
         <v>25</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>5.2787162162162161E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>98</v>
       </c>
-      <c r="B50">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A50)</f>
-        <v>20</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B53">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A53)</f>
+        <v>20</v>
+      </c>
+      <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>4.2229729729729732E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>100</v>
       </c>
-      <c r="B51">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A51)</f>
+      <c r="B54">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A54)</f>
         <v>5</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>1.0557432432432433E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>102</v>
       </c>
-      <c r="B52">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A52)</f>
+      <c r="B55">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A55)</f>
         <v>8</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>1.6891891891891893E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>104</v>
-      </c>
-      <c r="B53">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A53)</f>
-        <v>6</v>
-      </c>
-      <c r="C53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.266891891891892E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>106</v>
-      </c>
-      <c r="B54">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A54)</f>
-        <v>9</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9003378378378379E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>108</v>
-      </c>
-      <c r="B55">
-        <f>COUNTIF(Instances!$A$2:$A$5000, A55)</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0557432432432433E-3</v>
-      </c>
-    </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B56">
         <f>COUNTIF(Instances!$A$2:$A$5000, A56)</f>
@@ -24811,111 +24781,111 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B57">
         <f>COUNTIF(Instances!$A$2:$A$5000, A57)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
-        <v>4.2229729729729732E-4</v>
+        <v>1.9003378378378379E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <f>COUNTIF(Instances!$A$2:$A$5000, A58)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
-        <v>2.1114864864864866E-4</v>
+        <v>1.0557432432432433E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B59">
         <f>COUNTIF(Instances!$A$2:$A$5000, A59)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
-        <v>8.4459459459459464E-4</v>
+        <v>1.266891891891892E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B60">
         <f>COUNTIF(Instances!$A$2:$A$5000, A60)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>8.4459459459459464E-4</v>
+        <v>4.2229729729729732E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <f>COUNTIF(Instances!$A$2:$A$5000, A61)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="0"/>
-        <v>8.4459459459459464E-4</v>
+        <v>2.1114864864864866E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B62">
         <f>COUNTIF(Instances!$A$2:$A$5000, A62)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="0"/>
-        <v>1.0557432432432433E-3</v>
+        <v>8.4459459459459464E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B63">
         <f>COUNTIF(Instances!$A$2:$A$5000, A63)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="0"/>
-        <v>2.3226351351351353E-3</v>
+        <v>8.4459459459459464E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B64">
         <f>COUNTIF(Instances!$A$2:$A$5000, A64)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="0"/>
-        <v>2.1114864864864866E-3</v>
+        <v>8.4459459459459464E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B65">
         <f>COUNTIF(Instances!$A$2:$A$5000, A65)</f>
@@ -24928,72 +24898,72 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B66">
         <f>COUNTIF(Instances!$A$2:$A$5000, A66)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="0"/>
-        <v>6.3344594594594598E-4</v>
+        <v>2.3226351351351353E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B67">
         <f>COUNTIF(Instances!$A$2:$A$5000, A67)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C95" si="1">B67/B$1</f>
-        <v>1.266891891891892E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.1114864864864866E-3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B68">
         <f>COUNTIF(Instances!$A$2:$A$5000, A68)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="1"/>
-        <v>6.3344594594594598E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.0557432432432433E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B69">
         <f>COUNTIF(Instances!$A$2:$A$5000, A69)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2229729729729732E-4</v>
+        <f t="shared" si="0"/>
+        <v>6.3344594594594598E-4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B70">
         <f>COUNTIF(Instances!$A$2:$A$5000, A70)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" si="1"/>
-        <v>8.4459459459459464E-4</v>
+        <f t="shared" ref="C70:C98" si="1">B70/B$1</f>
+        <v>1.266891891891892E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B71">
         <f>COUNTIF(Instances!$A$2:$A$5000, A71)</f>
@@ -25006,33 +24976,33 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B72">
         <f>COUNTIF(Instances!$A$2:$A$5000, A72)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="1"/>
-        <v>1.0557432432432433E-3</v>
+        <v>4.2229729729729732E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B73">
         <f>COUNTIF(Instances!$A$2:$A$5000, A73)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="1"/>
-        <v>2.1114864864864866E-4</v>
+        <v>8.4459459459459464E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <f>COUNTIF(Instances!$A$2:$A$5000, A74)</f>
@@ -25045,7 +25015,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B75">
         <f>COUNTIF(Instances!$A$2:$A$5000, A75)</f>
@@ -25058,7 +25028,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B76">
         <f>COUNTIF(Instances!$A$2:$A$5000, A76)</f>
@@ -25071,33 +25041,33 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B77">
         <f>COUNTIF(Instances!$A$2:$A$5000, A77)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" si="1"/>
-        <v>4.2229729729729732E-4</v>
+        <v>6.3344594594594598E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B78">
         <f>COUNTIF(Instances!$A$2:$A$5000, A78)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" si="1"/>
-        <v>4.2229729729729732E-4</v>
+        <v>1.0557432432432433E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B79">
         <f>COUNTIF(Instances!$A$2:$A$5000, A79)</f>
@@ -25110,7 +25080,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B80">
         <f>COUNTIF(Instances!$A$2:$A$5000, A80)</f>
@@ -25123,7 +25093,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B81">
         <f>COUNTIF(Instances!$A$2:$A$5000, A81)</f>
@@ -25136,20 +25106,20 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B82">
         <f>COUNTIF(Instances!$A$2:$A$5000, A82)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" si="1"/>
-        <v>6.3344594594594598E-4</v>
+        <v>2.1114864864864866E-4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B83">
         <f>COUNTIF(Instances!$A$2:$A$5000, A83)</f>
@@ -25162,33 +25132,33 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B84">
         <f>COUNTIF(Instances!$A$2:$A$5000, A84)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" si="1"/>
-        <v>2.1114864864864866E-4</v>
+        <v>4.2229729729729732E-4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B85">
         <f>COUNTIF(Instances!$A$2:$A$5000, A85)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" si="1"/>
-        <v>2.1114864864864866E-4</v>
+        <v>6.3344594594594598E-4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B86">
         <f>COUNTIF(Instances!$A$2:$A$5000, A86)</f>
@@ -25201,20 +25171,20 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B87">
         <f>COUNTIF(Instances!$A$2:$A$5000, A87)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" si="1"/>
-        <v>4.2229729729729732E-4</v>
+        <v>2.1114864864864866E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B88">
         <f>COUNTIF(Instances!$A$2:$A$5000, A88)</f>
@@ -25227,7 +25197,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B89">
         <f>COUNTIF(Instances!$A$2:$A$5000, A89)</f>
@@ -25240,20 +25210,20 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B90">
         <f>COUNTIF(Instances!$A$2:$A$5000, A90)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="2">
         <f t="shared" si="1"/>
-        <v>2.1114864864864866E-4</v>
+        <v>4.2229729729729732E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B91">
         <f>COUNTIF(Instances!$A$2:$A$5000, A91)</f>
@@ -25266,52 +25236,91 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B92">
         <f>COUNTIF(Instances!$A$2:$A$5000, A92)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="2">
         <f t="shared" si="1"/>
-        <v>2.1114864864864866E-4</v>
+        <v>4.2229729729729732E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>416</v>
+        <v>190</v>
       </c>
       <c r="B93">
         <f>COUNTIF(Instances!$A$2:$A$5000, A93)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" si="1"/>
-        <v>1.9003378378378379E-3</v>
+        <v>2.1114864864864866E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>528</v>
+        <v>192</v>
       </c>
       <c r="B94">
         <f>COUNTIF(Instances!$A$2:$A$5000, A94)</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" si="1"/>
-        <v>6.1233108108108107E-3</v>
+        <v>2.1114864864864866E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>1040</v>
+        <v>194</v>
       </c>
       <c r="B95">
         <f>COUNTIF(Instances!$A$2:$A$5000, A95)</f>
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1114864864864866E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>416</v>
+      </c>
+      <c r="B96">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A96)</f>
         <v>9</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9003378378378379E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>528</v>
+      </c>
+      <c r="B97">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A97)</f>
+        <v>29</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1233108108108107E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B98">
+        <f>COUNTIF(Instances!$A$2:$A$5000, A98)</f>
+        <v>9</v>
+      </c>
+      <c r="C98" s="2">
         <f t="shared" si="1"/>
         <v>1.9003378378378379E-3</v>
       </c>
